--- a/Project Documents/User Stories and Acceptance Crieria.xlsx
+++ b/Project Documents/User Stories and Acceptance Crieria.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691\Git\2023S-zhu\Project Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EBBA1F-3C28-41D8-95EE-31FBE918BABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1280F92F-E949-42EF-965C-CB74663A663E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56502E19-8246-4594-A87D-9B213C9CFD27}"/>
   </bookViews>
@@ -527,7 +527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +590,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -597,7 +604,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -675,34 +684,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1033,8 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,82 +1043,82 @@
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="66.25" customWidth="1"/>
     <col min="12" max="13" width="40.375" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="20.75" customWidth="1"/>
     <col min="15" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -1120,27 +1129,27 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N4" s="7" t="s">
@@ -1151,27 +1160,27 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="10" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N5" s="7" t="s">
@@ -1182,27 +1191,27 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N6" s="7" t="s">
@@ -1211,27 +1220,27 @@
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="7" t="s">
@@ -1242,27 +1251,27 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N8" s="7" t="s">
@@ -1273,27 +1282,27 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -1304,27 +1313,27 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N10" s="7" t="s">
@@ -1333,27 +1342,27 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N11" s="7" t="s">
@@ -1362,27 +1371,27 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N12" s="7" t="s">
@@ -1391,58 +1400,56 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10" t="s">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="7">
-        <v>1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N14" s="7" t="s">
@@ -1453,27 +1460,27 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N15" s="7" t="s">
@@ -1482,27 +1489,27 @@
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10" t="s">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N16" s="7" t="s">
@@ -1511,27 +1518,27 @@
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10" t="s">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N17" s="7" t="s">
@@ -1542,27 +1549,27 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N18" s="7" t="s">
@@ -1571,27 +1578,27 @@
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="141.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10" t="s">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N19" s="7" t="s">
@@ -1600,27 +1607,27 @@
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15" ht="189" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10" t="s">
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N20" s="7" t="s">
@@ -1629,27 +1636,27 @@
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" ht="126" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10" t="s">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N21" s="7" t="s">
@@ -1660,27 +1667,27 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="173.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10" t="s">
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N22" s="7" t="s">

--- a/Project Documents/User Stories and Acceptance Crieria.xlsx
+++ b/Project Documents/User Stories and Acceptance Crieria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691&amp;692\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1280F92F-E949-42EF-965C-CB74663A663E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECF46A41-EC97-4B09-A14F-97DB7D6C3C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56502E19-8246-4594-A87D-9B213C9CFD27}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,10 +153,6 @@
   </si>
   <si>
     <t>play on different difficulty levels</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>my shells to score differently when they hit friendly and enemy forces</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -520,6 +516,14 @@
 Then: A new enemy tank immediately appears on the battlefield
 When: The player's ally tank is destroyed
 Then: A new ally tank immediately appears on the battlefield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>my shells to score differently when they hit enemy forces</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +617,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,6 +654,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -680,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,14 +727,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,8 +1064,8 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:O22"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1048,22 +1079,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.2">
@@ -1073,28 +1104,28 @@
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
@@ -1104,27 +1135,27 @@
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="7">
+        <v>64</v>
+      </c>
+      <c r="O3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1135,27 +1166,27 @@
       <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="7">
+        <v>64</v>
+      </c>
+      <c r="O4" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1166,27 +1197,27 @@
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="7">
+        <v>64</v>
+      </c>
+      <c r="O5" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1197,27 +1228,29 @@
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="O6" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1226,27 +1259,27 @@
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="7">
+        <v>64</v>
+      </c>
+      <c r="O7" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1257,27 +1290,27 @@
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="7">
+        <v>64</v>
+      </c>
+      <c r="O8" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1288,27 +1321,27 @@
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="7">
+        <v>64</v>
+      </c>
+      <c r="O9" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1319,27 +1352,29 @@
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="O10" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -1348,27 +1383,29 @@
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="O11" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -1377,27 +1414,29 @@
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="O12" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -1406,27 +1445,29 @@
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="C13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="O13" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -1435,27 +1476,27 @@
       <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="7">
+        <v>64</v>
+      </c>
+      <c r="O14" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1466,27 +1507,29 @@
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="O15" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
@@ -1495,27 +1538,29 @@
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="O16" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
@@ -1524,27 +1569,27 @@
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="C17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" s="7">
+        <v>64</v>
+      </c>
+      <c r="O17" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1555,27 +1600,29 @@
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="C18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="O18" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:15" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -1584,27 +1631,29 @@
       <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="C19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="O19" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="189" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -1613,27 +1662,29 @@
       <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="O20" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="126" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
@@ -1642,27 +1693,27 @@
       <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="C21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21" s="7">
+        <v>64</v>
+      </c>
+      <c r="O21" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1673,36 +1724,61 @@
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="C22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="O22" s="12">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="C19:G19"/>
@@ -1711,35 +1787,12 @@
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Documents/User Stories and Acceptance Crieria.xlsx
+++ b/Project Documents/User Stories and Acceptance Crieria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691&amp;692\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691&amp;692\CS691 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECF46A41-EC97-4B09-A14F-97DB7D6C3C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3C977C-0714-4F1B-88D9-95B7CA2E2489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56502E19-8246-4594-A87D-9B213C9CFD27}"/>
+    <workbookView xWindow="3885" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{56502E19-8246-4594-A87D-9B213C9CFD27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,15 +727,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,6 +735,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,22 +1079,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.2">
@@ -1104,20 +1104,20 @@
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="2" t="s">
         <v>70</v>
       </c>
@@ -1135,27 +1135,27 @@
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1166,27 +1166,27 @@
       <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1197,27 +1197,27 @@
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1228,27 +1228,27 @@
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1259,27 +1259,27 @@
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1290,27 +1290,27 @@
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1321,27 +1321,27 @@
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1352,27 +1352,27 @@
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1383,27 +1383,27 @@
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1414,27 +1414,27 @@
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1445,27 +1445,27 @@
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1476,27 +1476,27 @@
       <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1507,27 +1507,27 @@
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1538,27 +1538,27 @@
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1569,27 +1569,27 @@
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1600,27 +1600,27 @@
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1631,27 +1631,27 @@
       <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1662,27 +1662,27 @@
       <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1693,27 +1693,27 @@
       <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1724,37 +1724,62 @@
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="9">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="C7:G7"/>
@@ -1763,36 +1788,11 @@
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Documents/User Stories and Acceptance Crieria.xlsx
+++ b/Project Documents/User Stories and Acceptance Crieria.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691&amp;692\CS691 Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691\CS692 Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3C977C-0714-4F1B-88D9-95B7CA2E2489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7596B385-9439-4713-8401-D488CA7412C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3885" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{56502E19-8246-4594-A87D-9B213C9CFD27}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -276,10 +276,6 @@
   </si>
   <si>
     <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>To be Done</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -736,14 +732,14 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,8 +1060,8 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1079,22 +1075,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.2">
@@ -1104,28 +1100,28 @@
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>63</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
@@ -1135,22 +1131,22 @@
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>64</v>
@@ -1166,22 +1162,22 @@
       <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>64</v>
@@ -1197,22 +1193,22 @@
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>64</v>
@@ -1228,25 +1224,25 @@
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6" s="9">
         <v>2</v>
@@ -1259,22 +1255,22 @@
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>64</v>
@@ -1290,22 +1286,22 @@
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>64</v>
@@ -1321,22 +1317,22 @@
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>64</v>
@@ -1352,25 +1348,25 @@
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O10" s="9">
         <v>2</v>
@@ -1383,25 +1379,25 @@
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O11" s="9">
         <v>2</v>
@@ -1414,25 +1410,25 @@
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O12" s="9">
         <v>2</v>
@@ -1445,25 +1441,25 @@
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="C13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13" s="9">
         <v>2</v>
@@ -1476,22 +1472,22 @@
       <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>64</v>
@@ -1507,25 +1503,25 @@
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O15" s="9">
         <v>2</v>
@@ -1538,22 +1534,22 @@
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>64</v>
@@ -1569,22 +1565,22 @@
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>64</v>
@@ -1600,22 +1596,22 @@
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>64</v>
@@ -1631,22 +1627,22 @@
       <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>64</v>
@@ -1662,22 +1658,22 @@
       <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>64</v>
@@ -1693,22 +1689,22 @@
       <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>64</v>
@@ -1724,22 +1720,22 @@
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>64</v>
@@ -1750,12 +1746,35 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="C19:G19"/>
@@ -1764,35 +1783,12 @@
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
